--- a/01_studies/01_Laborstudie ProVisioNET/R script/reli/data/coding_handlungsalternativen_JG_MK.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/R script/reli/data/coding_handlungsalternativen_JG_MK.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/505858402c07da9d/Dokumente/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/R script/reli/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\R script\reli\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E90CAEB5-B629-46E6-B92B-644606A8550F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{E90CAEB5-B629-46E6-B92B-644606A8550F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{57F279D9-1FAC-4B83-8EA9-29897D4D18BB}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="34536" windowHeight="14652" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="99">
   <si>
     <t>VP ID</t>
   </si>
@@ -217,9 +217,6 @@
     <t>Störung ignorieren</t>
   </si>
   <si>
-    <t>Warten bis Gespräch beendet</t>
-  </si>
-  <si>
     <t xml:space="preserve">direkte Aufforderung </t>
   </si>
   <si>
@@ -238,9 +235,6 @@
     <t>Bianca ansprechen "Das geht so nicht"</t>
   </si>
   <si>
-    <t>Problem thematiseren</t>
-  </si>
-  <si>
     <t>Nach dem Unterricht ansprechen</t>
   </si>
   <si>
@@ -292,27 +286,12 @@
     <t>auf Klassenregel tippen</t>
   </si>
   <si>
-    <t>x später sagt sie "das würde ich nicht machen"</t>
-  </si>
-  <si>
     <t>Humorvolle Art</t>
   </si>
   <si>
     <t>lautes akustisches Signal mit Stimme</t>
   </si>
   <si>
-    <t>vor Tür schicken</t>
-  </si>
-  <si>
-    <t>auseinandersetzen</t>
-  </si>
-  <si>
-    <t>Muckelsteine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x ab hier sagt sie, das würde sie nicht machen </t>
-  </si>
-  <si>
     <t xml:space="preserve">schnalzen </t>
   </si>
   <si>
@@ -325,22 +304,25 @@
     <t>klatschen</t>
   </si>
   <si>
-    <t xml:space="preserve">schipsen </t>
-  </si>
-  <si>
     <t>hingehen &amp; nach Problem fragen</t>
   </si>
   <si>
-    <t>wünschenswertes Verhalten</t>
-  </si>
-  <si>
     <t xml:space="preserve">ermahnen </t>
   </si>
   <si>
     <t>an andere Personen richten</t>
   </si>
   <si>
-    <t>x bei Lernschwierigkeiten mit Begleitung rausschicken</t>
+    <t>Angucken und warten bis Gespräch beendet</t>
+  </si>
+  <si>
+    <t>Problem thematisieren</t>
+  </si>
+  <si>
+    <t>Ruhe an die Tafel schreiben</t>
+  </si>
+  <si>
+    <t>Hilfestellung/wünschenswertes Verhalten</t>
   </si>
 </sst>
 </file>
@@ -855,8 +837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView topLeftCell="A25" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1515,10 +1497,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF6C11F6-F341-40DC-AC80-1037FB109FE3}">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1528,7 +1510,7 @@
     <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1542,7 +1524,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="14">
         <v>101</v>
       </c>
@@ -1556,7 +1538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
       <c r="B3" s="18">
         <v>2</v>
@@ -1565,10 +1547,10 @@
         <v>56</v>
       </c>
       <c r="D3" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="17"/>
       <c r="B4" s="18">
         <v>3</v>
@@ -1580,7 +1562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="B5" s="18">
         <v>4</v>
@@ -1592,7 +1574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="20"/>
       <c r="B6" s="8">
         <v>5</v>
@@ -1603,11 +1585,8 @@
       <c r="D6" s="10">
         <v>4</v>
       </c>
-      <c r="E6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>102</v>
       </c>
@@ -1621,7 +1600,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1">
         <v>2</v>
@@ -1633,44 +1612,43 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1">
         <v>3</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
       <c r="C10" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
       </c>
-      <c r="E11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>103</v>
       </c>
@@ -1684,46 +1662,43 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="18">
         <v>2</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="D13" s="4">
         <v>6</v>
       </c>
-      <c r="E13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="18">
         <v>3</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D14" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="20"/>
       <c r="B15" s="8">
         <v>4</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D15" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
         <v>104</v>
       </c>
@@ -1731,40 +1706,37 @@
         <v>1</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D16" s="3">
         <v>6</v>
       </c>
-      <c r="E16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="B17" s="18">
         <v>2</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="20"/>
       <c r="B18" s="8">
         <v>3</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D18" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>105</v>
       </c>
@@ -1772,49 +1744,49 @@
         <v>1</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D19" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1">
         <v>2</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="D20" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1">
         <v>3</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D21" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="23"/>
       <c r="B22" s="23">
         <v>4</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D22" s="25">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
         <v>201</v>
       </c>
@@ -1828,19 +1800,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
       <c r="B24" s="18">
         <v>2</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D24" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="17"/>
       <c r="B25" s="18">
         <v>3</v>
@@ -1852,43 +1824,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
       <c r="B26" s="18">
         <v>4</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
       <c r="B27" s="18">
         <v>5</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D27" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="20"/>
-      <c r="B28" s="8">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="17"/>
+      <c r="B28" s="18">
         <v>6</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D28" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C28" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="14">
         <v>202</v>
       </c>
@@ -1896,28 +1868,25 @@
         <v>1</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D29" s="3">
         <v>6</v>
       </c>
-      <c r="E29" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
       <c r="B30" s="18">
         <v>2</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D30" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="17"/>
       <c r="B31" s="18">
         <v>3</v>
@@ -1929,13 +1898,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
       <c r="B32" s="18">
         <v>4</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D32" s="4">
         <v>1</v>
@@ -1947,7 +1916,7 @@
         <v>5</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D33" s="4">
         <v>4</v>
@@ -1959,9 +1928,11 @@
         <v>6</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D34" s="10"/>
+        <v>83</v>
+      </c>
+      <c r="D34" s="10">
+        <v>4</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="15">
@@ -1971,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D35" s="3">
         <v>1</v>
@@ -1983,7 +1954,7 @@
         <v>2</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D36" s="4">
         <v>1</v>
@@ -1995,13 +1966,10 @@
         <v>3</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D37" s="4">
         <v>6</v>
-      </c>
-      <c r="E37" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -2010,10 +1978,10 @@
         <v>4</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -2022,7 +1990,7 @@
         <v>5</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="D39" s="4">
         <v>1</v>
@@ -2034,217 +2002,148 @@
         <v>6</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D40" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18">
-        <v>7</v>
-      </c>
-      <c r="C41" s="22" t="s">
+      <c r="A41" s="14">
+        <v>205</v>
+      </c>
+      <c r="B41" s="15">
+        <v>1</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="17"/>
+      <c r="B42" s="18">
+        <v>2</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="17"/>
+      <c r="B43" s="18">
+        <v>3</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="17"/>
+      <c r="B44" s="18">
+        <v>4</v>
+      </c>
+      <c r="C44" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="D41" s="4">
-        <v>4</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="D44" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="20"/>
+      <c r="B45" s="8">
+        <v>5</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>206</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1">
+        <v>2</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47" s="4">
+        <v>4</v>
+      </c>
+      <c r="E47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1">
+        <v>3</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1">
+        <v>4</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D49" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1">
+        <v>5</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18">
-        <v>8</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="D42" s="4">
+      <c r="D50" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8">
         <v>6</v>
       </c>
-      <c r="E42" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="18"/>
-      <c r="B43" s="18">
-        <v>9</v>
-      </c>
-      <c r="C43" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="D43" s="4">
-        <v>4</v>
-      </c>
-      <c r="E43" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="18"/>
-      <c r="B44" s="18">
-        <v>10</v>
-      </c>
-      <c r="C44" s="22" t="s">
+      <c r="C51" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D44" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="14">
-        <v>205</v>
-      </c>
-      <c r="B45" s="15">
-        <v>1</v>
-      </c>
-      <c r="C45" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="D45" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="17"/>
-      <c r="B46" s="18">
-        <v>2</v>
-      </c>
-      <c r="C46" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D46" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="17"/>
-      <c r="B47" s="18">
-        <v>3</v>
-      </c>
-      <c r="C47" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="D47" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="17"/>
-      <c r="B48" s="18">
-        <v>4</v>
-      </c>
-      <c r="C48" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="D48" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="17"/>
-      <c r="B49" s="18">
-        <v>5</v>
-      </c>
-      <c r="C49" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D49" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="20"/>
-      <c r="B50" s="8">
-        <v>6</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D50" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
-        <v>206</v>
-      </c>
-      <c r="B51" s="1">
-        <v>1</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D51" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1">
-        <v>2</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D52" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1">
-        <v>3</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D53" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1">
-        <v>4</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D54" s="4">
-        <v>3</v>
-      </c>
-      <c r="E54" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1">
-        <v>5</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D55" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8">
-        <v>6</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D56" s="10">
+      <c r="D51" s="10">
         <v>4</v>
       </c>
     </row>
